--- a/classfiers/mega/svm/nearmiss/mega-svm-sigmoid-nearmiss-results.xlsx
+++ b/classfiers/mega/svm/nearmiss/mega-svm-sigmoid-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09302325581395349</v>
+        <v>0.875</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08791208791208792</v>
+        <v>0.4375000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05598958333333334</v>
+        <v>0.736545138888889</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06382978723404255</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07792207792207791</v>
+        <v>0.9278350515463918</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1241134751773049</v>
+        <v>0.9348404255319149</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5571428571428572</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8297872340425532</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.9894736842105264</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8253546099290781</v>
+        <v>0.9968971631205674</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.625</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.9600000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6981382978723404</v>
+        <v>0.9578900709219859</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7532467532467533</v>
+        <v>0.9894736842105264</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7872340425531914</v>
+        <v>0.9995567375886525</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4750332225913622</v>
+        <v>0.935448717948718</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4828900709219858</v>
+        <v>0.8456560283687944</v>
       </c>
       <c r="D7" t="n">
-        <v>0.46000666000666</v>
+        <v>0.8608564839934889</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4981660017730496</v>
+        <v>0.9251459072104019</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/mega/svm/nearmiss/mega-svm-sigmoid-nearmiss-results.xlsx
+++ b/classfiers/mega/svm/nearmiss/mega-svm-sigmoid-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.875</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4375000000000001</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="E2" t="n">
-        <v>0.736545138888889</v>
+        <v>0.7706131078224101</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9574468085106383</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9278350515463918</v>
+        <v>0.942528735632184</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9348404255319149</v>
+        <v>0.9624735729386893</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9894736842105264</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9968971631205674</v>
+        <v>0.9989429175475688</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9600000000000001</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9578900709219859</v>
+        <v>0.9640591966173361</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9894736842105264</v>
+        <v>0.988235294117647</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9995567375886525</v>
+        <v>0.9989183342347214</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.935448717948718</v>
+        <v>0.9382353600762482</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8456560283687944</v>
+        <v>0.8465116279069769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8608564839934889</v>
+        <v>0.8647701273259083</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9251459072104019</v>
+        <v>0.9390014258321451</v>
       </c>
     </row>
   </sheetData>
